--- a/tests/results/Apdoroti_Išrasai_Citadele.xlsx
+++ b/tests/results/Apdoroti_Išrasai_Citadele.xlsx
@@ -16,36 +16,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>ASMENS SĄSKAITA</t>
-  </si>
-  <si>
-    <t>MOKĖTOJAS</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>MOKĖTOJO SĄSKAITA</t>
   </si>
   <si>
     <t>MOKĖJIMO PASKIRTIS</t>
   </si>
   <si>
-    <t>LT123</t>
-  </si>
-  <si>
-    <t>Jonas</t>
-  </si>
-  <si>
-    <t>Paslauga</t>
-  </si>
-  <si>
-    <t>GAVĖJAS</t>
+    <t>GAVĖJO SĄSKAITA</t>
+  </si>
+  <si>
+    <t>LT123456789012345678</t>
+  </si>
+  <si>
+    <t>LT123456789012345678 Pavedimas</t>
   </si>
   <si>
     <t>Viso</t>
   </si>
   <si>
-    <t>LT123 Bendros Pajamos</t>
-  </si>
-  <si>
-    <t>LT123 Bendros Išlaidos</t>
+    <t>Bendros Pajamos</t>
+  </si>
+  <si>
+    <t>Bendros Išlaidos</t>
   </si>
 </sst>
 </file>
@@ -403,38 +397,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2024</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -444,7 +418,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -452,13 +426,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2024</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -479,29 +464,29 @@
         <v>2024</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/tests/results/Apdoroti_Išrasai_Citadele.xlsx
+++ b/tests/results/Apdoroti_Išrasai_Citadele.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t>MOKĖTOJAS</t>
+  </si>
   <si>
     <t>MOKĖTOJO SĄSKAITA</t>
   </si>
@@ -24,13 +27,16 @@
     <t>MOKĖJIMO PASKIRTIS</t>
   </si>
   <si>
+    <t>Nenurodytas</t>
+  </si>
+  <si>
+    <t>LT123456789012345678</t>
+  </si>
+  <si>
+    <t>GAVĖJAS</t>
+  </si>
+  <si>
     <t>GAVĖJO SĄSKAITA</t>
-  </si>
-  <si>
-    <t>LT123456789012345678</t>
-  </si>
-  <si>
-    <t>LT123456789012345678 Pavedimas</t>
   </si>
   <si>
     <t>Viso</t>
@@ -397,18 +403,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -418,7 +444,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -426,24 +452,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2024</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -464,29 +479,29 @@
         <v>2024</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
